--- a/Weather Data Analysis/Michigan/Michigan.xlsx
+++ b/Weather Data Analysis/Michigan/Michigan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhay/Desktop/powerCheck/Weather Data Analysis/Michigan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0DDF1E69-6132-8249-8DB6-E8099E64D0E5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{22BCAB40-1646-DC48-96A0-CD57A70D24FC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15700" xr2:uid="{5C8575FD-0842-F943-9517-757A7AF2A576}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22240" windowHeight="15700" xr2:uid="{5C8575FD-0842-F943-9517-757A7AF2A576}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -112,46 +108,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -469,288 +461,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA909C9-68D4-6D43-9749-E0FEBA2A0A9A}">
-  <dimension ref="A1:A54"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="9"/>
+    <col min="1" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A1" s="2">
-        <v>42923</v>
+      <c r="A1" s="14">
+        <v>40347</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>42802</v>
+      <c r="A2" s="14">
+        <v>40374</v>
       </c>
     </row>
     <row r="3" spans="1:1" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>42419</v>
+      <c r="A3" s="14">
+        <v>40409</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>42559</v>
+      <c r="A4" s="14">
+        <v>40442</v>
       </c>
     </row>
     <row r="5" spans="1:1" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>42182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>42218</v>
+      <c r="A5" s="14">
+        <v>40478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" s="2" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>40524</v>
       </c>
     </row>
     <row r="7" spans="1:1" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>42219</v>
+      <c r="A7" s="13">
+        <v>40594</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>42250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" s="2" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>42329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>42362</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>40625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>40673</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <v>40692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
-        <v>41821</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+        <v>40726</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
-        <v>41887</v>
+        <v>40735</v>
       </c>
     </row>
     <row r="13" spans="1:1" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
-        <v>41741</v>
+      <c r="A13" s="9">
+        <v>40775</v>
       </c>
     </row>
     <row r="14" spans="1:1" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
-        <v>41887</v>
+        <v>40789</v>
       </c>
     </row>
     <row r="15" spans="1:1" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
-        <v>41967</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>41808</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5">
-        <v>41821</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40970</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>41015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>41089</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
-        <v>41847</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5">
-        <v>41877</v>
+        <v>41095.1875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>41212.083333333336</v>
       </c>
     </row>
     <row r="20" spans="1:1" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
-        <v>41741</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>41294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
-        <v>41294</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
-        <v>41382</v>
+        <v>41474</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
-        <v>41474</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
         <v>41528</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10">
+    <row r="24" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
         <v>41595</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10">
-        <v>41595</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10">
-        <v>41595</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="12">
+    <row r="25" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
         <v>41630</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
-        <v>41630</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>41741</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>41808</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>41847</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" s="12" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <v>40970</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41877</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <v>40970</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41887</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
-        <v>41015</v>
+        <v>41967</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="10">
-        <v>41089</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
-        <v>41095.1875</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="10">
-        <v>41212.083333333336</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
-        <v>40735</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
-        <v>40625</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
-        <v>40735</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
-        <v>40692</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
-        <v>40726</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
-        <v>40789</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="10">
-        <v>40775</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15">
-        <v>40594</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="10">
-        <v>40673</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
-        <v>40735</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="16">
-        <v>40442</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="16">
-        <v>40347</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="16">
-        <v>40347</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="16">
-        <v>40478</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="16">
-        <v>40374</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="16">
-        <v>40382</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="16">
-        <v>40409</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="16">
-        <v>40524</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="16">
-        <v>40347</v>
+      <c r="A33" s="4">
+        <v>42182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>42218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>42219</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>42250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>42329</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>42362</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>42419</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>42559</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>42802</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>42923</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:A42">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
